--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value694.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value694.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.165667057037354</v>
+      </c>
+      <c r="B1">
+        <v>1.335435748100281</v>
+      </c>
+      <c r="C1">
+        <v>1.669107675552368</v>
+      </c>
+      <c r="D1">
+        <v>3.268141269683838</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="B1">
-        <v>0.2852830983412</v>
-      </c>
-      <c r="C1">
-        <v>0.1504067964713764</v>
-      </c>
-      <c r="D1">
-        <v>0.1175973229945666</v>
-      </c>
-      <c r="E1">
-        <v>0.1072478227660885</v>
       </c>
     </row>
   </sheetData>
